--- a/2019/01/avaliacao/AcompanhamentoProjetos.xlsx
+++ b/2019/01/avaliacao/AcompanhamentoProjetos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>ecomTrust</t>
   </si>
@@ -126,6 +126,48 @@
   </si>
   <si>
     <t>Renan</t>
+  </si>
+  <si>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t>Funcionalidades</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Ok-Falta o relacionamento entre pedido e produto</t>
+  </si>
+  <si>
+    <t>Ok - Pode melhorar</t>
+  </si>
+  <si>
+    <t>Não Esta</t>
+  </si>
+  <si>
+    <t>Ok - Mais de um pedido</t>
+  </si>
+  <si>
+    <t>Falta me colocar</t>
+  </si>
+  <si>
+    <t>Melhorar</t>
+  </si>
+  <si>
+    <t>Melhor</t>
+  </si>
+  <si>
+    <t>Falta interconexao</t>
+  </si>
+  <si>
+    <t>Upload de arqiovos</t>
   </si>
 </sst>
 </file>
@@ -476,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,9 +530,13 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
     <col min="6" max="7" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -512,8 +558,17 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -526,8 +581,23 @@
       <c r="D2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -537,8 +607,11 @@
       <c r="D3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -551,8 +624,23 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -562,8 +650,23 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -576,8 +679,14 @@
       <c r="D6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -587,8 +696,14 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -598,8 +713,14 @@
       <c r="D8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -613,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -626,8 +747,23 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -640,8 +776,11 @@
       <c r="D11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -654,8 +793,14 @@
       <c r="D12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -665,8 +810,14 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -676,8 +827,14 @@
       <c r="D14" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -690,8 +847,14 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -701,8 +864,14 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -715,8 +884,14 @@
       <c r="D17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -726,8 +901,14 @@
       <c r="D18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>7.5</v>
+      </c>
+      <c r="F18">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -737,8 +918,14 @@
       <c r="D19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+      <c r="F19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -752,6 +939,18 @@
         <v>4</v>
       </c>
       <c r="E20" s="1"/>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
